--- a/パレート.xlsx
+++ b/パレート.xlsx
@@ -666,6 +666,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1423261792"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1627,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1">
-        <f>C2/$C$11</f>
+        <f t="shared" ref="D2:D10" si="0">C2/$C$11</f>
         <v>0.21153846153846154</v>
       </c>
     </row>
@@ -1642,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <f>C3/$C$11</f>
+        <f t="shared" si="0"/>
         <v>0.19230769230769232</v>
       </c>
     </row>
@@ -1657,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <f>C4/$C$11</f>
+        <f t="shared" si="0"/>
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
@@ -1672,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <f>C5/$C$11</f>
+        <f t="shared" si="0"/>
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
@@ -1687,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <f>C6/$C$11</f>
+        <f t="shared" si="0"/>
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
@@ -1702,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f>C7/$C$11</f>
+        <f t="shared" si="0"/>
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
@@ -1717,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1">
-        <f>C8/$C$11</f>
+        <f t="shared" si="0"/>
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
@@ -1732,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <f>C9/$C$11</f>
+        <f t="shared" si="0"/>
         <v>9.6153846153846159E-2</v>
       </c>
     </row>
@@ -1747,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f>C10/$C$11</f>
+        <f t="shared" si="0"/>
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
